--- a/Doc/Samples/Kalkulator przeliczanie medycyny pracy.xlsx
+++ b/Doc/Samples/Kalkulator przeliczanie medycyny pracy.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mediacom '!$A$6:$F$50</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -113,6 +113,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000000%"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -266,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -285,12 +288,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -299,6 +296,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -598,24 +603,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.28515625" customWidth="1"/>
     <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -623,7 +629,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -631,7 +637,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -643,7 +649,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -651,16 +657,16 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="5"/>
@@ -676,9 +682,13 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="G6" s="27">
+        <f>SUM(C6:F6)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="5"/>
@@ -695,7 +705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -719,8 +729,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="9"/>
@@ -729,8 +739,8 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="5"/>
@@ -746,9 +756,17 @@
       <c r="F10" s="6">
         <v>0.46924709999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="G10" s="27">
+        <f>SUM(C10:F10)</f>
+        <v>1.0001</v>
+      </c>
+      <c r="I10" s="26">
+        <f t="array" ref="I10">SUM(ROUND(C10:F10,2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="5"/>
@@ -765,7 +783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -789,7 +807,7 @@
         <v>77.857478831999984</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -806,7 +824,7 @@
         <v>33.813684223999999</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="D13:F13" si="0">E10*$B13</f>
+        <f t="shared" ref="E13:F13" si="0">E10*$B13</f>
         <v>4.6352302079999994</v>
       </c>
       <c r="F13" s="8">
@@ -814,7 +832,7 @@
         <v>38.440722431999994</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -839,8 +857,8 @@
         <v>38.440722431999994</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="9"/>
@@ -849,8 +867,8 @@
       <c r="E15" s="9"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="5"/>
@@ -866,9 +884,13 @@
       <c r="F16" s="6">
         <v>0.58979480000000006</v>
       </c>
+      <c r="G16" s="27">
+        <f>SUM(C16:F16)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="5"/>
@@ -960,7 +982,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="9"/>
@@ -970,7 +992,7 @@
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="5"/>
@@ -986,9 +1008,13 @@
       <c r="F22" s="6">
         <v>0</v>
       </c>
+      <c r="G22" s="27">
+        <f>SUM(C22:F22)</f>
+        <v>1.0000007</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="5"/>
@@ -1029,64 +1055,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="23">
         <f>B24-B8</f>
         <v>272.82</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="24">
         <f>C22*$B25</f>
         <v>16.397136767999999</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="24">
         <f t="shared" ref="D25:F25" si="4">D22*$B25</f>
         <v>146.68857534599999</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="24">
         <f t="shared" si="4"/>
         <v>109.73447886</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="23">
         <f>B24-B8</f>
         <v>272.82</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="24">
         <f>C22*$B26</f>
         <v>16.397136767999999</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="24">
         <f t="shared" ref="D26:F26" si="5">D22*$B26</f>
         <v>146.68857534599999</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="24">
         <f t="shared" si="5"/>
         <v>109.73447886</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="9"/>
@@ -1096,7 +1122,7 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="11"/>
@@ -1112,9 +1138,13 @@
       <c r="F28" s="6">
         <v>0.48450890000000002</v>
       </c>
+      <c r="G28" s="27">
+        <f>SUM(C28:F28)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="11"/>
@@ -1205,8 +1235,8 @@
         <v>78.030158345000004</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+    <row r="33" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="13"/>
@@ -1215,8 +1245,8 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="5"/>
@@ -1232,9 +1262,13 @@
       <c r="F34" s="6">
         <v>0.65075670000000008</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
+      <c r="G34" s="27">
+        <f>SUM(C34:F34)</f>
+        <v>1.0000002000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="5"/>
@@ -1251,7 +1285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
@@ -1275,7 +1309,7 @@
         <v>469.03289152500008</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>16</v>
       </c>
@@ -1300,7 +1334,7 @@
         <v>236.82988583100004</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>17</v>
       </c>
@@ -1325,8 +1359,8 @@
         <v>236.82988583100004</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
+    <row r="39" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="13"/>
@@ -1335,8 +1369,8 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="5"/>
@@ -1346,9 +1380,13 @@
         <v>1</v>
       </c>
       <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+      <c r="G40" s="27">
+        <f>SUM(C40:F40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="5"/>
@@ -1365,7 +1403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>18</v>
       </c>
@@ -1389,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>19</v>
       </c>
@@ -1414,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>20</v>
       </c>
@@ -1439,8 +1477,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
+    <row r="45" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="13"/>
@@ -1449,8 +1487,8 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="5"/>
@@ -1460,9 +1498,13 @@
         <v>1</v>
       </c>
       <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
+      <c r="G46" s="27">
+        <f>SUM(C46:F46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="5"/>
@@ -1478,8 +1520,9 @@
       <c r="F47" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="27"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>

--- a/Doc/Samples/Kalkulator przeliczanie medycyny pracy.xlsx
+++ b/Doc/Samples/Kalkulator przeliczanie medycyny pracy.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>Medycyna Pracy</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>Błąd</t>
+  </si>
+  <si>
+    <t>Max 4 osoby na 1 pakiet (np. Żona + 3 dzieci)</t>
+  </si>
+  <si>
+    <t>Max 1 osoba na pakiet</t>
+  </si>
+  <si>
+    <t>Tylko pracownik</t>
   </si>
 </sst>
 </file>
@@ -605,8 +614,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" activeCellId="1" sqref="B37 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -688,10 +697,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5"/>
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C7" s="7" t="s">
         <v>0</v>
       </c>
@@ -766,10 +777,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5"/>
+      <c r="A11" s="18">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>0</v>
       </c>
@@ -890,10 +903,12 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5"/>
+      <c r="A17" s="18">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C17" s="5" t="s">
         <v>0</v>
       </c>
@@ -1014,10 +1029,12 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="5"/>
+      <c r="A23" s="18">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C23" s="5" t="s">
         <v>0</v>
       </c>
@@ -1144,10 +1161,12 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="11"/>
+      <c r="A29" s="18">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C29" s="5" t="s">
         <v>0</v>
       </c>
@@ -1268,10 +1287,12 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="5"/>
+      <c r="A35" s="18">
+        <v>6</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C35" s="5" t="s">
         <v>0</v>
       </c>
@@ -1386,10 +1407,12 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="5"/>
+      <c r="A41" s="18">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C41" s="11" t="s">
         <v>0</v>
       </c>
@@ -1504,10 +1527,12 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="5"/>
+      <c r="A47" s="18">
+        <v>8</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C47" s="11" t="s">
         <v>0</v>
       </c>
